--- a/dormitory.xlsx
+++ b/dormitory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463DDA7-51A4-42CA-9ED7-CB15FF216AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAE513A-9111-43FF-B9B8-47072509CD76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,11 +38,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S1-B333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1-B444</t>
+    <t>S2-B455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2-B111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -402,7 +402,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>

--- a/dormitory.xlsx
+++ b/dormitory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAE513A-9111-43FF-B9B8-47072509CD76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2FD48F-3CBA-46B9-8C41-82A7FBD646F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>宿舍号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,20 +30,1347 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S1-A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-A101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-A102</t>
+  </si>
+  <si>
+    <t>S1-A103</t>
+  </si>
+  <si>
+    <t>S1-A104</t>
+  </si>
+  <si>
+    <t>S1-A105</t>
+  </si>
+  <si>
+    <t>S1-A106</t>
+  </si>
+  <si>
+    <t>S1-A107</t>
+  </si>
+  <si>
+    <t>S1-A108</t>
+  </si>
+  <si>
+    <t>S1-A109</t>
+  </si>
+  <si>
+    <t>S1-A110</t>
+  </si>
+  <si>
     <t>S1-A111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1-A222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-A112</t>
+  </si>
+  <si>
+    <t>S1-A113</t>
+  </si>
+  <si>
+    <t>S1-A114</t>
+  </si>
+  <si>
+    <t>S1-A115</t>
+  </si>
+  <si>
+    <t>S1-A116</t>
+  </si>
+  <si>
+    <t>S1-A117</t>
+  </si>
+  <si>
+    <t>S1-A118</t>
+  </si>
+  <si>
+    <t>S1-A119</t>
+  </si>
+  <si>
+    <t>S1-A120</t>
+  </si>
+  <si>
+    <t>S1-A121</t>
+  </si>
+  <si>
+    <t>S1-A122</t>
+  </si>
+  <si>
+    <t>S1-A123</t>
+  </si>
+  <si>
+    <t>S1-A124</t>
+  </si>
+  <si>
+    <t>S1-A125</t>
+  </si>
+  <si>
+    <t>S1-A126</t>
+  </si>
+  <si>
+    <t>S1-A127</t>
+  </si>
+  <si>
+    <t>S1-A128</t>
+  </si>
+  <si>
+    <t>S1-A129</t>
+  </si>
+  <si>
+    <t>S1-A130</t>
+  </si>
+  <si>
+    <t>S1-A131</t>
+  </si>
+  <si>
+    <t>S1-A132</t>
+  </si>
+  <si>
+    <t>S1-A133</t>
+  </si>
+  <si>
+    <t>S1-A134</t>
+  </si>
+  <si>
+    <t>S1-A135</t>
+  </si>
+  <si>
+    <t>S1-A136</t>
+  </si>
+  <si>
+    <t>S1-A137</t>
+  </si>
+  <si>
+    <t>S1-A138</t>
+  </si>
+  <si>
+    <t>S1-A139</t>
+  </si>
+  <si>
+    <t>S1-A140</t>
+  </si>
+  <si>
+    <t>S1-A141</t>
+  </si>
+  <si>
+    <t>S1-A142</t>
+  </si>
+  <si>
+    <t>S1-A143</t>
+  </si>
+  <si>
+    <t>S1-A144</t>
+  </si>
+  <si>
+    <t>S1-A145</t>
+  </si>
+  <si>
+    <t>S1-A146</t>
+  </si>
+  <si>
+    <t>S1-A147</t>
+  </si>
+  <si>
+    <t>S1-A148</t>
+  </si>
+  <si>
+    <t>S1-A149</t>
+  </si>
+  <si>
+    <t>S1-A150</t>
+  </si>
+  <si>
+    <t>S1-A151</t>
+  </si>
+  <si>
+    <t>S1-A152</t>
+  </si>
+  <si>
+    <t>S1-A153</t>
+  </si>
+  <si>
+    <t>S1-A154</t>
+  </si>
+  <si>
+    <t>S1-A155</t>
+  </si>
+  <si>
+    <t>S1-A156</t>
+  </si>
+  <si>
+    <t>S1-A157</t>
+  </si>
+  <si>
+    <t>S1-A158</t>
+  </si>
+  <si>
+    <t>S1-A159</t>
+  </si>
+  <si>
+    <t>S1-A160</t>
+  </si>
+  <si>
+    <t>S1-A161</t>
+  </si>
+  <si>
+    <t>S1-A162</t>
+  </si>
+  <si>
+    <t>S1-A163</t>
+  </si>
+  <si>
+    <t>S1-A164</t>
+  </si>
+  <si>
+    <t>S1-A165</t>
+  </si>
+  <si>
+    <t>S1-A166</t>
+  </si>
+  <si>
+    <t>S1-A167</t>
+  </si>
+  <si>
+    <t>S1-A168</t>
+  </si>
+  <si>
+    <t>S1-A169</t>
+  </si>
+  <si>
+    <t>S1-A170</t>
+  </si>
+  <si>
+    <t>S1-A171</t>
+  </si>
+  <si>
+    <t>S1-A172</t>
+  </si>
+  <si>
+    <t>S1-A173</t>
+  </si>
+  <si>
+    <t>S1-A174</t>
+  </si>
+  <si>
+    <t>S1-A175</t>
+  </si>
+  <si>
+    <t>S1-A176</t>
+  </si>
+  <si>
+    <t>S1-A177</t>
+  </si>
+  <si>
+    <t>S1-A178</t>
+  </si>
+  <si>
+    <t>S1-A179</t>
+  </si>
+  <si>
+    <t>S1-A180</t>
+  </si>
+  <si>
+    <t>S1-A181</t>
+  </si>
+  <si>
+    <t>S1-A182</t>
+  </si>
+  <si>
+    <t>S1-A183</t>
+  </si>
+  <si>
+    <t>S1-A184</t>
+  </si>
+  <si>
+    <t>S1-A185</t>
+  </si>
+  <si>
+    <t>S1-A186</t>
+  </si>
+  <si>
+    <t>S1-A187</t>
+  </si>
+  <si>
+    <t>S1-A188</t>
+  </si>
+  <si>
+    <t>S1-A189</t>
+  </si>
+  <si>
+    <t>S1-A190</t>
+  </si>
+  <si>
+    <t>S1-A191</t>
+  </si>
+  <si>
+    <t>S1-A192</t>
+  </si>
+  <si>
+    <t>S1-A193</t>
+  </si>
+  <si>
+    <t>S1-A194</t>
+  </si>
+  <si>
+    <t>S1-A195</t>
+  </si>
+  <si>
+    <t>S1-A196</t>
+  </si>
+  <si>
+    <t>S1-A197</t>
+  </si>
+  <si>
+    <t>S1-A198</t>
+  </si>
+  <si>
+    <t>S2-B203</t>
+  </si>
+  <si>
+    <t>S2-B204</t>
+  </si>
+  <si>
+    <t>S2-B205</t>
+  </si>
+  <si>
+    <t>S2-B206</t>
+  </si>
+  <si>
+    <t>S2-B207</t>
+  </si>
+  <si>
+    <t>S2-B208</t>
+  </si>
+  <si>
+    <t>S2-B209</t>
+  </si>
+  <si>
+    <t>S2-B210</t>
+  </si>
+  <si>
+    <t>S2-B211</t>
+  </si>
+  <si>
+    <t>S2-B212</t>
+  </si>
+  <si>
+    <t>S2-B213</t>
+  </si>
+  <si>
+    <t>S2-B214</t>
+  </si>
+  <si>
+    <t>S2-B215</t>
+  </si>
+  <si>
+    <t>S2-B216</t>
+  </si>
+  <si>
+    <t>S2-B217</t>
+  </si>
+  <si>
+    <t>S2-B218</t>
+  </si>
+  <si>
+    <t>S2-B219</t>
+  </si>
+  <si>
+    <t>S2-B220</t>
+  </si>
+  <si>
+    <t>S2-B221</t>
+  </si>
+  <si>
+    <t>S2-B222</t>
+  </si>
+  <si>
+    <t>S2-B223</t>
+  </si>
+  <si>
+    <t>S2-B224</t>
+  </si>
+  <si>
+    <t>S2-B225</t>
+  </si>
+  <si>
+    <t>S2-B226</t>
+  </si>
+  <si>
+    <t>S2-B227</t>
+  </si>
+  <si>
+    <t>S2-B228</t>
+  </si>
+  <si>
+    <t>S2-B229</t>
+  </si>
+  <si>
+    <t>S2-B230</t>
+  </si>
+  <si>
+    <t>S2-B231</t>
+  </si>
+  <si>
+    <t>S2-B232</t>
+  </si>
+  <si>
+    <t>S2-B233</t>
+  </si>
+  <si>
+    <t>S2-B234</t>
+  </si>
+  <si>
+    <t>S2-B235</t>
+  </si>
+  <si>
+    <t>S2-B236</t>
+  </si>
+  <si>
+    <t>S2-B237</t>
+  </si>
+  <si>
+    <t>S2-B238</t>
+  </si>
+  <si>
+    <t>S2-B239</t>
+  </si>
+  <si>
+    <t>S2-B240</t>
+  </si>
+  <si>
+    <t>S2-B241</t>
+  </si>
+  <si>
+    <t>S2-B242</t>
+  </si>
+  <si>
+    <t>S2-B243</t>
+  </si>
+  <si>
+    <t>S2-B244</t>
+  </si>
+  <si>
+    <t>S2-B245</t>
+  </si>
+  <si>
+    <t>S2-B246</t>
+  </si>
+  <si>
+    <t>S2-B247</t>
+  </si>
+  <si>
+    <t>S2-B248</t>
+  </si>
+  <si>
+    <t>S2-B249</t>
+  </si>
+  <si>
+    <t>S2-B250</t>
+  </si>
+  <si>
+    <t>S2-B251</t>
+  </si>
+  <si>
+    <t>S2-B252</t>
+  </si>
+  <si>
+    <t>S2-B253</t>
+  </si>
+  <si>
+    <t>S2-B254</t>
+  </si>
+  <si>
+    <t>S2-B255</t>
+  </si>
+  <si>
+    <t>S2-B256</t>
+  </si>
+  <si>
+    <t>S2-B257</t>
+  </si>
+  <si>
+    <t>S2-B258</t>
+  </si>
+  <si>
+    <t>S2-B259</t>
+  </si>
+  <si>
+    <t>S2-B260</t>
+  </si>
+  <si>
+    <t>S2-B261</t>
+  </si>
+  <si>
+    <t>S2-B262</t>
+  </si>
+  <si>
+    <t>S2-B263</t>
+  </si>
+  <si>
+    <t>S2-B264</t>
+  </si>
+  <si>
+    <t>S2-B265</t>
+  </si>
+  <si>
+    <t>S2-B266</t>
+  </si>
+  <si>
+    <t>S2-B267</t>
+  </si>
+  <si>
+    <t>S2-B268</t>
+  </si>
+  <si>
+    <t>S2-B269</t>
+  </si>
+  <si>
+    <t>S2-B270</t>
+  </si>
+  <si>
+    <t>S2-B271</t>
+  </si>
+  <si>
+    <t>S2-B272</t>
+  </si>
+  <si>
+    <t>S2-B273</t>
+  </si>
+  <si>
+    <t>S2-B274</t>
+  </si>
+  <si>
+    <t>S2-B275</t>
+  </si>
+  <si>
+    <t>S2-B276</t>
+  </si>
+  <si>
+    <t>S2-B277</t>
+  </si>
+  <si>
+    <t>S2-B278</t>
+  </si>
+  <si>
+    <t>S2-B279</t>
+  </si>
+  <si>
+    <t>S2-B280</t>
+  </si>
+  <si>
+    <t>S2-B281</t>
+  </si>
+  <si>
+    <t>S2-B282</t>
+  </si>
+  <si>
+    <t>S2-B283</t>
+  </si>
+  <si>
+    <t>S2-B284</t>
+  </si>
+  <si>
+    <t>S2-B285</t>
+  </si>
+  <si>
+    <t>S2-B286</t>
+  </si>
+  <si>
+    <t>S2-B287</t>
+  </si>
+  <si>
+    <t>S2-B288</t>
+  </si>
+  <si>
+    <t>S2-B289</t>
+  </si>
+  <si>
+    <t>S2-B290</t>
+  </si>
+  <si>
+    <t>S2-B291</t>
+  </si>
+  <si>
+    <t>S2-B292</t>
+  </si>
+  <si>
+    <t>S2-B293</t>
+  </si>
+  <si>
+    <t>S2-B294</t>
+  </si>
+  <si>
+    <t>S2-B295</t>
+  </si>
+  <si>
+    <t>S2-B296</t>
+  </si>
+  <si>
+    <t>S2-B297</t>
+  </si>
+  <si>
+    <t>S2-B298</t>
+  </si>
+  <si>
+    <t>S2-B299</t>
+  </si>
+  <si>
+    <t>S2-B300</t>
+  </si>
+  <si>
+    <t>S2-B301</t>
+  </si>
+  <si>
+    <t>S2-B302</t>
+  </si>
+  <si>
+    <t>S2-B303</t>
+  </si>
+  <si>
+    <t>S2-B304</t>
+  </si>
+  <si>
+    <t>S2-B305</t>
+  </si>
+  <si>
+    <t>S2-B306</t>
+  </si>
+  <si>
+    <t>S2-B307</t>
+  </si>
+  <si>
+    <t>S2-B308</t>
+  </si>
+  <si>
+    <t>S2-B309</t>
+  </si>
+  <si>
+    <t>S2-B310</t>
+  </si>
+  <si>
+    <t>S2-B311</t>
+  </si>
+  <si>
+    <t>S2-B312</t>
+  </si>
+  <si>
+    <t>S2-B313</t>
+  </si>
+  <si>
+    <t>S2-B314</t>
+  </si>
+  <si>
+    <t>S2-B315</t>
+  </si>
+  <si>
+    <t>S2-B316</t>
+  </si>
+  <si>
+    <t>S2-B317</t>
+  </si>
+  <si>
+    <t>S2-B318</t>
+  </si>
+  <si>
+    <t>S2-B319</t>
+  </si>
+  <si>
+    <t>S2-B320</t>
+  </si>
+  <si>
+    <t>S2-B321</t>
+  </si>
+  <si>
+    <t>S2-B322</t>
+  </si>
+  <si>
+    <t>S2-B323</t>
+  </si>
+  <si>
+    <t>S2-B324</t>
+  </si>
+  <si>
+    <t>S2-B325</t>
+  </si>
+  <si>
+    <t>S2-B326</t>
+  </si>
+  <si>
+    <t>S2-B327</t>
+  </si>
+  <si>
+    <t>S2-B328</t>
+  </si>
+  <si>
+    <t>S2-B329</t>
+  </si>
+  <si>
+    <t>S2-B330</t>
+  </si>
+  <si>
+    <t>S2-B331</t>
+  </si>
+  <si>
+    <t>S2-B332</t>
+  </si>
+  <si>
+    <t>S2-B333</t>
+  </si>
+  <si>
+    <t>S2-B334</t>
+  </si>
+  <si>
+    <t>S2-B335</t>
+  </si>
+  <si>
+    <t>S2-B336</t>
+  </si>
+  <si>
+    <t>S2-B337</t>
+  </si>
+  <si>
+    <t>S2-B338</t>
+  </si>
+  <si>
+    <t>S2-B339</t>
+  </si>
+  <si>
+    <t>S2-B340</t>
+  </si>
+  <si>
+    <t>S2-B341</t>
+  </si>
+  <si>
+    <t>S2-B342</t>
+  </si>
+  <si>
+    <t>S2-B343</t>
+  </si>
+  <si>
+    <t>S2-B344</t>
+  </si>
+  <si>
+    <t>S2-B345</t>
+  </si>
+  <si>
+    <t>S2-B346</t>
+  </si>
+  <si>
+    <t>S2-B347</t>
+  </si>
+  <si>
+    <t>S2-B348</t>
+  </si>
+  <si>
+    <t>S2-B349</t>
+  </si>
+  <si>
+    <t>S2-B350</t>
+  </si>
+  <si>
+    <t>S2-B351</t>
+  </si>
+  <si>
+    <t>S2-B352</t>
+  </si>
+  <si>
+    <t>S2-B353</t>
+  </si>
+  <si>
+    <t>S2-B354</t>
+  </si>
+  <si>
+    <t>S2-B355</t>
+  </si>
+  <si>
+    <t>S2-B356</t>
+  </si>
+  <si>
+    <t>S2-B357</t>
+  </si>
+  <si>
+    <t>S2-B358</t>
+  </si>
+  <si>
+    <t>S2-B359</t>
+  </si>
+  <si>
+    <t>S2-B360</t>
+  </si>
+  <si>
+    <t>S2-B361</t>
+  </si>
+  <si>
+    <t>S2-B362</t>
+  </si>
+  <si>
+    <t>S2-B363</t>
+  </si>
+  <si>
+    <t>S2-B364</t>
+  </si>
+  <si>
+    <t>S2-B365</t>
+  </si>
+  <si>
+    <t>S2-B366</t>
+  </si>
+  <si>
+    <t>S2-B367</t>
+  </si>
+  <si>
+    <t>S2-B368</t>
+  </si>
+  <si>
+    <t>S2-B369</t>
+  </si>
+  <si>
+    <t>S2-B370</t>
+  </si>
+  <si>
+    <t>S2-B371</t>
+  </si>
+  <si>
+    <t>S2-B372</t>
+  </si>
+  <si>
+    <t>S2-B373</t>
+  </si>
+  <si>
+    <t>S2-B374</t>
+  </si>
+  <si>
+    <t>S2-B375</t>
+  </si>
+  <si>
+    <t>S2-B376</t>
+  </si>
+  <si>
+    <t>S2-B377</t>
+  </si>
+  <si>
+    <t>S2-B378</t>
+  </si>
+  <si>
+    <t>S2-B379</t>
+  </si>
+  <si>
+    <t>S2-B380</t>
+  </si>
+  <si>
+    <t>S2-B381</t>
+  </si>
+  <si>
+    <t>S2-B382</t>
+  </si>
+  <si>
+    <t>S2-B383</t>
+  </si>
+  <si>
+    <t>S2-B384</t>
+  </si>
+  <si>
+    <t>S2-B385</t>
+  </si>
+  <si>
+    <t>S2-B386</t>
+  </si>
+  <si>
+    <t>S2-B387</t>
+  </si>
+  <si>
+    <t>S2-B388</t>
+  </si>
+  <si>
+    <t>S2-B389</t>
+  </si>
+  <si>
+    <t>S2-B390</t>
+  </si>
+  <si>
+    <t>S2-B391</t>
+  </si>
+  <si>
+    <t>S2-B392</t>
+  </si>
+  <si>
+    <t>S2-B393</t>
+  </si>
+  <si>
+    <t>S2-B394</t>
+  </si>
+  <si>
+    <t>S2-B395</t>
+  </si>
+  <si>
+    <t>S2-B396</t>
+  </si>
+  <si>
+    <t>S2-B397</t>
+  </si>
+  <si>
+    <t>S2-B398</t>
+  </si>
+  <si>
+    <t>S2-B399</t>
+  </si>
+  <si>
+    <t>S2-B400</t>
+  </si>
+  <si>
+    <t>S2-B401</t>
+  </si>
+  <si>
+    <t>S2-B402</t>
+  </si>
+  <si>
+    <t>S2-B403</t>
+  </si>
+  <si>
+    <t>S2-B404</t>
+  </si>
+  <si>
+    <t>S2-B405</t>
+  </si>
+  <si>
+    <t>S2-B406</t>
+  </si>
+  <si>
+    <t>S2-B407</t>
+  </si>
+  <si>
+    <t>S2-B408</t>
+  </si>
+  <si>
+    <t>S2-B409</t>
+  </si>
+  <si>
+    <t>S2-B410</t>
+  </si>
+  <si>
+    <t>S2-B411</t>
+  </si>
+  <si>
+    <t>S2-B412</t>
+  </si>
+  <si>
+    <t>S2-B413</t>
+  </si>
+  <si>
+    <t>S2-B414</t>
+  </si>
+  <si>
+    <t>S2-B415</t>
+  </si>
+  <si>
+    <t>S2-B416</t>
+  </si>
+  <si>
+    <t>S2-B417</t>
+  </si>
+  <si>
+    <t>S2-B418</t>
+  </si>
+  <si>
+    <t>S2-B419</t>
+  </si>
+  <si>
+    <t>S2-B420</t>
+  </si>
+  <si>
+    <t>S2-B421</t>
+  </si>
+  <si>
+    <t>S2-B422</t>
+  </si>
+  <si>
+    <t>S2-B423</t>
+  </si>
+  <si>
+    <t>S2-B424</t>
+  </si>
+  <si>
+    <t>S2-B425</t>
+  </si>
+  <si>
+    <t>S2-B426</t>
+  </si>
+  <si>
+    <t>S2-B427</t>
+  </si>
+  <si>
+    <t>S2-B428</t>
+  </si>
+  <si>
+    <t>S2-B429</t>
+  </si>
+  <si>
+    <t>S2-B430</t>
+  </si>
+  <si>
+    <t>S2-B431</t>
+  </si>
+  <si>
+    <t>S2-B432</t>
+  </si>
+  <si>
+    <t>S2-B433</t>
+  </si>
+  <si>
+    <t>S2-B434</t>
+  </si>
+  <si>
+    <t>S2-B435</t>
+  </si>
+  <si>
+    <t>S2-B436</t>
+  </si>
+  <si>
+    <t>S2-B437</t>
+  </si>
+  <si>
+    <t>S2-B438</t>
+  </si>
+  <si>
+    <t>S2-B439</t>
+  </si>
+  <si>
+    <t>S2-B440</t>
+  </si>
+  <si>
+    <t>S2-B441</t>
+  </si>
+  <si>
+    <t>S2-B442</t>
+  </si>
+  <si>
+    <t>S2-B443</t>
+  </si>
+  <si>
+    <t>S2-B444</t>
+  </si>
+  <si>
+    <t>S2-B445</t>
+  </si>
+  <si>
+    <t>S2-B446</t>
+  </si>
+  <si>
+    <t>S2-B447</t>
+  </si>
+  <si>
+    <t>S2-B448</t>
+  </si>
+  <si>
+    <t>S2-B449</t>
+  </si>
+  <si>
+    <t>S2-B450</t>
+  </si>
+  <si>
+    <t>S2-B451</t>
+  </si>
+  <si>
+    <t>S2-B452</t>
+  </si>
+  <si>
+    <t>S2-B453</t>
+  </si>
+  <si>
+    <t>S2-B454</t>
   </si>
   <si>
     <t>S2-B455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2-B111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2-B456</t>
+  </si>
+  <si>
+    <t>S2-B457</t>
+  </si>
+  <si>
+    <t>S2-B458</t>
+  </si>
+  <si>
+    <t>S2-B459</t>
+  </si>
+  <si>
+    <t>S2-B460</t>
+  </si>
+  <si>
+    <t>S2-B461</t>
+  </si>
+  <si>
+    <t>S2-B462</t>
+  </si>
+  <si>
+    <t>S2-B463</t>
+  </si>
+  <si>
+    <t>S2-B464</t>
+  </si>
+  <si>
+    <t>S2-B465</t>
+  </si>
+  <si>
+    <t>S2-B466</t>
+  </si>
+  <si>
+    <t>S2-B467</t>
+  </si>
+  <si>
+    <t>S2-B468</t>
+  </si>
+  <si>
+    <t>S2-B469</t>
+  </si>
+  <si>
+    <t>S2-B470</t>
+  </si>
+  <si>
+    <t>S2-B471</t>
+  </si>
+  <si>
+    <t>S2-B472</t>
+  </si>
+  <si>
+    <t>S2-B473</t>
+  </si>
+  <si>
+    <t>S2-B474</t>
+  </si>
+  <si>
+    <t>S2-B475</t>
+  </si>
+  <si>
+    <t>S2-B476</t>
+  </si>
+  <si>
+    <t>S2-B477</t>
+  </si>
+  <si>
+    <t>S2-B478</t>
+  </si>
+  <si>
+    <t>S2-B479</t>
+  </si>
+  <si>
+    <t>S2-B480</t>
+  </si>
+  <si>
+    <t>S2-B481</t>
+  </si>
+  <si>
+    <t>S2-B482</t>
+  </si>
+  <si>
+    <t>S2-B483</t>
+  </si>
+  <si>
+    <t>S2-B484</t>
+  </si>
+  <si>
+    <t>S2-B485</t>
+  </si>
+  <si>
+    <t>S2-B486</t>
+  </si>
+  <si>
+    <t>S2-B487</t>
+  </si>
+  <si>
+    <t>S2-B488</t>
+  </si>
+  <si>
+    <t>S2-B489</t>
+  </si>
+  <si>
+    <t>S2-B490</t>
+  </si>
+  <si>
+    <t>S2-B491</t>
+  </si>
+  <si>
+    <t>S2-B492</t>
+  </si>
+  <si>
+    <t>S2-B493</t>
+  </si>
+  <si>
+    <t>S2-B494</t>
+  </si>
+  <si>
+    <t>S2-B495</t>
+  </si>
+  <si>
+    <t>S2-B496</t>
+  </si>
+  <si>
+    <t>S2-B497</t>
+  </si>
+  <si>
+    <t>S2-B498</t>
+  </si>
+  <si>
+    <t>S2-B499</t>
+  </si>
+  <si>
+    <t>S2-B500</t>
+  </si>
+  <si>
+    <t>S2-B501</t>
+  </si>
+  <si>
+    <t>S2-B502</t>
+  </si>
+  <si>
+    <t>S2-B503</t>
+  </si>
+  <si>
+    <t>S2-B504</t>
+  </si>
+  <si>
+    <t>S2-B505</t>
+  </si>
+  <si>
+    <t>S2-B506</t>
+  </si>
+  <si>
+    <t>S2-B507</t>
+  </si>
+  <si>
+    <t>S2-B508</t>
+  </si>
+  <si>
+    <t>S2-B509</t>
+  </si>
+  <si>
+    <t>S2-B510</t>
+  </si>
+  <si>
+    <t>S2-B511</t>
+  </si>
+  <si>
+    <t>S2-B512</t>
+  </si>
+  <si>
+    <t>S2-B513</t>
+  </si>
+  <si>
+    <t>S2-B514</t>
+  </si>
+  <si>
+    <t>S2-B515</t>
+  </si>
+  <si>
+    <t>S2-B516</t>
+  </si>
+  <si>
+    <t>S2-B517</t>
+  </si>
+  <si>
+    <t>S2-B518</t>
+  </si>
+  <si>
+    <t>S2-B519</t>
+  </si>
+  <si>
+    <t>S2-B520</t>
+  </si>
+  <si>
+    <t>S2-B521</t>
+  </si>
+  <si>
+    <t>S2-B522</t>
+  </si>
+  <si>
+    <t>S2-B523</t>
+  </si>
+  <si>
+    <t>S2-B524</t>
+  </si>
+  <si>
+    <t>S2-B525</t>
+  </si>
+  <si>
+    <t>S2-B526</t>
+  </si>
+  <si>
+    <t>S2-B527</t>
+  </si>
+  <si>
+    <t>S2-B528</t>
+  </si>
+  <si>
+    <t>S2-B529</t>
+  </si>
+  <si>
+    <t>S2-B530</t>
+  </si>
+  <si>
+    <t>S2-B531</t>
+  </si>
+  <si>
+    <t>S2-B532</t>
+  </si>
+  <si>
+    <t>S2-B533</t>
+  </si>
+  <si>
+    <t>S2-B534</t>
+  </si>
+  <si>
+    <t>S2-B535</t>
+  </si>
+  <si>
+    <t>S2-B536</t>
+  </si>
+  <si>
+    <t>S2-B537</t>
+  </si>
+  <si>
+    <t>S2-B538</t>
+  </si>
+  <si>
+    <t>S2-B539</t>
+  </si>
+  <si>
+    <t>S2-B540</t>
+  </si>
+  <si>
+    <t>S2-B541</t>
+  </si>
+  <si>
+    <t>S2-B542</t>
+  </si>
+  <si>
+    <t>S2-B543</t>
+  </si>
+  <si>
+    <t>S2-B544</t>
+  </si>
+  <si>
+    <t>S2-B545</t>
+  </si>
+  <si>
+    <t>S2-B546</t>
+  </si>
+  <si>
+    <t>S2-B547</t>
+  </si>
+  <si>
+    <t>S2-B548</t>
+  </si>
+  <si>
+    <t>S2-B549</t>
+  </si>
+  <si>
+    <t>S2-B550</t>
   </si>
 </sst>
 </file>
@@ -368,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="F389" sqref="F389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -402,7 +1729,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -410,9 +1737,3553 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
         <v>4</v>
       </c>
     </row>
